--- a/src/test/resources/testdata/ScoreValidationData.xlsx
+++ b/src/test/resources/testdata/ScoreValidationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2457265\Downloads\HIC_Automation_Framework_POD5\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79B4F732-A65C-41B1-8D2A-0A859F7AAC63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D040AAC3-EDDE-4C39-9A3E-86685B45FDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{0AD6DE7A-C0BF-426C-82FE-CE3FE687062B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -227,7 +227,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="58" x14ac:knownFonts="1">
+  <fonts count="266" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,140 +264,1180 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -591,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -612,32 +1652,32 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -664,6 +1704,214 @@
     <xf numFmtId="0" fontId="55" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="56" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="57" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="84" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="85" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="86" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="87" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="88" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="89" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="90" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="91" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="92" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="93" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="94" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="95" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="96" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="97" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="98" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="99" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="100" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="101" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="102" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="103" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="104" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="105" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="106" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="107" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="108" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="109" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="110" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="111" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="112" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="113" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="114" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="115" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="116" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="117" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="118" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="119" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="120" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="121" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="122" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="123" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="124" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="125" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="126" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="185" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="186" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="187" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="188" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="189" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="190" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="191" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="192" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="193" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="194" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="195" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="196" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="197" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="198" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="199" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="200" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="201" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="202" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="203" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="204" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="205" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="206" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="207" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="208" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="209" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="210" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="211" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="212" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="213" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="214" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="215" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="216" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="217" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="218" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="219" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="220" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="221" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="222" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="223" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="224" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="225" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="226" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="227" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="228" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="229" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="230" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="231" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="232" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="233" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="234" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="235" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="236" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="237" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="238" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="239" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="240" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="241" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="242" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="243" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="244" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="245" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="246" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="247" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="248" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="249" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="250" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="251" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="252" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="253" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="254" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="255" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="256" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="257" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="258" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="259" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="260" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="261" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="262" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="263" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="264" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="265" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1001,7 +2249,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScale="52" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1062,7 +2310,7 @@
       <c r="G2" s="5">
         <v>10</v>
       </c>
-      <c r="H2" t="s" s="34">
+      <c r="H2" t="s" s="242">
         <v>37</v>
       </c>
     </row>
@@ -1088,7 +2336,7 @@
       <c r="G3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" t="s" s="35">
+      <c r="H3" t="s" s="243">
         <v>37</v>
       </c>
     </row>
@@ -1114,7 +2362,7 @@
       <c r="G4" s="5">
         <v>7</v>
       </c>
-      <c r="H4" t="s" s="36">
+      <c r="H4" t="s" s="244">
         <v>37</v>
       </c>
     </row>
@@ -1140,7 +2388,7 @@
       <c r="G5" s="5">
         <v>7</v>
       </c>
-      <c r="H5" t="s" s="37">
+      <c r="H5" t="s" s="245">
         <v>37</v>
       </c>
     </row>
@@ -1166,7 +2414,7 @@
       <c r="G6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" t="s" s="38">
+      <c r="H6" t="s" s="246">
         <v>37</v>
       </c>
     </row>
@@ -1192,7 +2440,7 @@
       <c r="G7" s="5">
         <v>5</v>
       </c>
-      <c r="H7" t="s" s="39">
+      <c r="H7" t="s" s="247">
         <v>37</v>
       </c>
     </row>
@@ -1218,7 +2466,7 @@
       <c r="G8" s="5">
         <v>3</v>
       </c>
-      <c r="H8" t="s" s="40">
+      <c r="H8" t="s" s="248">
         <v>37</v>
       </c>
     </row>
@@ -1244,7 +2492,7 @@
       <c r="G9" s="5">
         <v>10</v>
       </c>
-      <c r="H9" t="s" s="41">
+      <c r="H9" t="s" s="249">
         <v>37</v>
       </c>
     </row>
@@ -1270,7 +2518,7 @@
       <c r="G10" s="5">
         <v>10</v>
       </c>
-      <c r="H10" t="s" s="42">
+      <c r="H10" t="s" s="250">
         <v>37</v>
       </c>
     </row>
@@ -1296,7 +2544,7 @@
       <c r="G11" s="5">
         <v>7</v>
       </c>
-      <c r="H11" t="s" s="43">
+      <c r="H11" t="s" s="251">
         <v>37</v>
       </c>
     </row>
@@ -1322,7 +2570,7 @@
       <c r="G12" s="5">
         <v>7</v>
       </c>
-      <c r="H12" t="s" s="44">
+      <c r="H12" t="s" s="252">
         <v>37</v>
       </c>
     </row>
@@ -1348,7 +2596,7 @@
       <c r="G13" s="5">
         <v>4</v>
       </c>
-      <c r="H13" t="s" s="45">
+      <c r="H13" t="s" s="253">
         <v>37</v>
       </c>
     </row>
@@ -1374,7 +2622,7 @@
       <c r="G14" s="5">
         <v>4</v>
       </c>
-      <c r="H14" t="s" s="46">
+      <c r="H14" t="s" s="254">
         <v>37</v>
       </c>
     </row>
@@ -1400,7 +2648,7 @@
       <c r="G15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H15" t="s" s="47">
+      <c r="H15" t="s" s="255">
         <v>37</v>
       </c>
     </row>
@@ -1426,7 +2674,7 @@
       <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" t="s" s="48">
+      <c r="H16" t="s" s="256">
         <v>37</v>
       </c>
     </row>
@@ -1452,7 +2700,7 @@
       <c r="G17" s="5">
         <v>4</v>
       </c>
-      <c r="H17" t="s" s="49">
+      <c r="H17" t="s" s="257">
         <v>37</v>
       </c>
     </row>
@@ -1478,7 +2726,7 @@
       <c r="G18" s="5">
         <v>7</v>
       </c>
-      <c r="H18" t="s" s="50">
+      <c r="H18" t="s" s="258">
         <v>37</v>
       </c>
     </row>
@@ -1504,7 +2752,7 @@
       <c r="G19" s="5">
         <v>10</v>
       </c>
-      <c r="H19" t="s" s="51">
+      <c r="H19" t="s" s="259">
         <v>37</v>
       </c>
     </row>
@@ -1530,7 +2778,7 @@
       <c r="G20" s="5">
         <v>7</v>
       </c>
-      <c r="H20" t="s" s="52">
+      <c r="H20" t="s" s="260">
         <v>37</v>
       </c>
     </row>
@@ -1556,7 +2804,7 @@
       <c r="G21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" t="s" s="53">
+      <c r="H21" t="s" s="261">
         <v>37</v>
       </c>
     </row>
@@ -1582,12 +2830,12 @@
       <c r="G22" s="5">
         <v>2</v>
       </c>
-      <c r="H22" t="s" s="54">
+      <c r="H22" t="s" s="262">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1597,7 +2845,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1614,7 +2862,7 @@
     <col min="10" max="10" customWidth="true" width="13.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +2922,7 @@
       <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s" s="55">
+      <c r="J2" t="s" s="263">
         <v>37</v>
       </c>
     </row>
@@ -1706,7 +2954,7 @@
       <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s" s="56">
+      <c r="J3" t="s" s="264">
         <v>38</v>
       </c>
     </row>
@@ -1738,7 +2986,7 @@
       <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J4" t="s" s="57">
+      <c r="J4" t="s" s="265">
         <v>37</v>
       </c>
     </row>
@@ -1770,7 +3018,7 @@
       <c r="I5" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s" s="58">
+      <c r="J5" t="s" s="266">
         <v>37</v>
       </c>
     </row>
@@ -1802,7 +3050,7 @@
       <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J6" t="s" s="59">
+      <c r="J6" t="s" s="267">
         <v>37</v>
       </c>
     </row>
